--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>asdasd@asd.co</t>
+  </si>
+  <si>
+    <t>aaaa11</t>
+  </si>
+  <si>
+    <t>aaaaa11!</t>
+  </si>
+  <si>
+    <t>123456654</t>
+  </si>
+  <si>
+    <t>has@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A58186-9BB2-4A70-ABE5-73916BE66454}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -568,6 +580,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1571\source\repos\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1DBB94-3D5D-4399-A8DC-EC6B9B394287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D957A9F6-B344-403D-8F41-A637FC2542F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F7EC2FCC-C8BD-4EB9-AEB9-DFBCE5078D41}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -89,25 +89,16 @@
     <t>Male</t>
   </si>
   <si>
-    <t>asdaas</t>
-  </si>
-  <si>
-    <t>asdasd!1</t>
-  </si>
-  <si>
-    <t>asdasd@asd.co</t>
-  </si>
-  <si>
     <t>aaaa11</t>
   </si>
   <si>
-    <t>aaaaa11!</t>
-  </si>
-  <si>
-    <t>123456654</t>
-  </si>
-  <si>
-    <t>has@gmail.com</t>
+    <t>aaaa123!</t>
+  </si>
+  <si>
+    <t>123456489</t>
+  </si>
+  <si>
+    <t>asd@asd.co</t>
   </si>
 </sst>
 </file>
@@ -480,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A58186-9BB2-4A70-ABE5-73916BE66454}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0">
         <v>3</v>
@@ -559,6 +550,9 @@
       <c r="F3" s="0">
         <v>0</v>
       </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -568,32 +562,12 @@
         <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
         <v>16</v>
       </c>
     </row>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0">
         <v>3</v>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -99,6 +99,30 @@
   </si>
   <si>
     <t>asd@asd.co</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>Test0123!!</t>
+  </si>
+  <si>
+    <t>212121211</t>
+  </si>
+  <si>
+    <t>ass@gmail.com</t>
+  </si>
+  <si>
+    <t>yoyo11</t>
+  </si>
+  <si>
+    <t>Yoyo123!</t>
+  </si>
+  <si>
+    <t>123434567</t>
+  </si>
+  <si>
+    <t>ddd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -471,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A58186-9BB2-4A70-ABE5-73916BE66454}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -525,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0">
         <v>3</v>
@@ -569,6 +593,46 @@
       </c>
       <c r="E4" s="0" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Username</t>
   </si>
@@ -62,67 +62,91 @@
     <t>test01</t>
   </si>
   <si>
+    <t>Test01234!</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>test01@gmail.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>test2123!</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>aaaa11</t>
+  </si>
+  <si>
+    <t>aaaa123!</t>
+  </si>
+  <si>
+    <t>123456489</t>
+  </si>
+  <si>
+    <t>asd@asd.co</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>Test0123!!</t>
+  </si>
+  <si>
+    <t>212121211</t>
+  </si>
+  <si>
+    <t>ass@gmail.com</t>
+  </si>
+  <si>
+    <t>yoyo11</t>
+  </si>
+  <si>
+    <t>Yoyo123!</t>
+  </si>
+  <si>
+    <t>123434567</t>
+  </si>
+  <si>
+    <t>ddd@gmail.com</t>
+  </si>
+  <si>
+    <t>kareeee1</t>
+  </si>
+  <si>
+    <t>Kare01234!</t>
+  </si>
+  <si>
+    <t>012345678</t>
+  </si>
+  <si>
+    <t>kfyufk@gmail.com</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
     <t>Test0123!</t>
   </si>
   <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>test01@gmail.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>test02</t>
-  </si>
-  <si>
-    <t>test2123!</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>test2@gmail.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>aaaa11</t>
-  </si>
-  <si>
-    <t>aaaa123!</t>
-  </si>
-  <si>
-    <t>123456489</t>
-  </si>
-  <si>
-    <t>asd@asd.co</t>
-  </si>
-  <si>
-    <t>test09</t>
-  </si>
-  <si>
-    <t>Test0123!!</t>
-  </si>
-  <si>
-    <t>212121211</t>
-  </si>
-  <si>
-    <t>ass@gmail.com</t>
-  </si>
-  <si>
-    <t>yoyo11</t>
-  </si>
-  <si>
-    <t>Yoyo123!</t>
-  </si>
-  <si>
-    <t>123434567</t>
-  </si>
-  <si>
-    <t>ddd@gmail.com</t>
+    <t>213234567</t>
+  </si>
+  <si>
+    <t>aaaa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -495,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A58186-9BB2-4A70-ABE5-73916BE66454}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -549,10 +573,10 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -633,6 +657,43 @@
       </c>
       <c r="G6" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Username</t>
   </si>
@@ -147,6 +147,27 @@
   </si>
   <si>
     <t>aaaa@gmail.com</t>
+  </si>
+  <si>
+    <t>test00</t>
+  </si>
+  <si>
+    <t>012348765</t>
+  </si>
+  <si>
+    <t>kjbiubo@gmail.com</t>
+  </si>
+  <si>
+    <t>tarek01</t>
+  </si>
+  <si>
+    <t>Tarek0123!</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>jnntpnerrpg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -519,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A58186-9BB2-4A70-ABE5-73916BE66454}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -573,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0">
         <v>4</v>
@@ -694,6 +715,46 @@
       </c>
       <c r="F8" s="0">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Username</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>jnntpnerrpg@gmail.com</t>
+  </si>
+  <si>
+    <t>test97</t>
+  </si>
+  <si>
+    <t>test1233!</t>
+  </si>
+  <si>
+    <t>123455789</t>
+  </si>
+  <si>
+    <t>sss@sss.com</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A58186-9BB2-4A70-ABE5-73916BE66454}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -757,6 +769,29 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="0">
+        <v>14</v>
+      </c>
+      <c r="G11" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
